--- a/Web/Excel/Ejemplo.xlsx
+++ b/Web/Excel/Ejemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edy\Documents\GitHub\Proyecto2\Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,7 +406,7 @@
     <t>GTM</t>
   </si>
   <si>
-    <t>Mex</t>
+    <t>MEX</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Web/Excel/Ejemplo.xlsx
+++ b/Web/Excel/Ejemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edy\Documents\GitHub\Proyecto2\Web\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Proyecto2\Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
   <si>
     <t>Jose Maria Calixto Acosta</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>VEN</t>
-  </si>
-  <si>
-    <t>NIC</t>
   </si>
   <si>
     <t>GTM</t>
@@ -980,7 +977,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>11</v>
@@ -1184,7 +1181,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>21</v>
@@ -1250,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>27</v>
@@ -1288,7 +1285,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>31</v>
@@ -1352,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>36</v>
@@ -1442,7 +1439,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>44</v>
@@ -1508,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>48</v>
@@ -1600,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>55</v>
@@ -1666,7 +1663,7 @@
         <v>61</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>62</v>
@@ -1756,7 +1753,7 @@
         <v>61</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>68</v>
@@ -1820,7 +1817,7 @@
         <v>61</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>73</v>
@@ -1884,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>78</v>
@@ -1950,7 +1947,7 @@
         <v>85</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>86</v>
@@ -2068,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>96</v>
@@ -2134,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>103</v>
@@ -2198,7 +2195,7 @@
         <v>108</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>109</v>
@@ -2262,7 +2259,7 @@
         <v>26</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>114</v>
@@ -2326,7 +2323,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>118</v>
